--- a/doc/Errors.xlsx
+++ b/doc/Errors.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" refMode="R1C1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -54,12 +54,6 @@
     <t>во время обращения к базе данных</t>
   </si>
   <si>
-    <t>водитель не найден</t>
-  </si>
-  <si>
-    <t>Значит, что водитель, который проходит авторизацию не найден в базе данных</t>
-  </si>
-  <si>
     <t>Значит, что штрих код прочтенный с одного из com портов обладал не верным форматом.</t>
   </si>
   <si>
@@ -76,13 +70,25 @@
   </si>
   <si>
     <t>Значит, что машина находится на весах, но водитель не авторизовался.</t>
+  </si>
+  <si>
+    <t>Машина не найдена</t>
+  </si>
+  <si>
+    <t>Значит, что машина водителья, который проходит авторизацию не найден в базе данных</t>
+  </si>
+  <si>
+    <t>Водитель не найден</t>
+  </si>
+  <si>
+    <t>Водитель не найден в датабазе водителей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -161,6 +174,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -257,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,28 +453,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="170.25" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -477,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="75">
       <c r="A3" s="4">
         <f>A2 + 1</f>
         <v>1</v>
@@ -486,22 +505,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A9" si="0">A3 + 1</f>
+        <f t="shared" ref="A4:A10" si="0">A3 + 1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="56.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -510,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="93.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="93.75">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -522,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93.75">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -534,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="56.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -546,19 +565,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
